--- a/TestCases/Square.xlsx
+++ b/TestCases/Square.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamActivity\ChessJavaScript\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACE2238-E18C-4B72-9FFF-40E82FB32BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71F7F0C-E8C8-401C-9DE0-149BD42C6555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IsValidSquare" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,8 @@
     <sheet name="DeltaY" sheetId="3" r:id="rId3"/>
     <sheet name="DeltaY2" sheetId="5" r:id="rId4"/>
     <sheet name="DeltaDiag" sheetId="4" r:id="rId5"/>
-    <sheet name="IsOccupied" sheetId="6" r:id="rId6"/>
+    <sheet name="CalcPathLinear" sheetId="8" r:id="rId6"/>
     <sheet name="CalcPathDiag" sheetId="7" r:id="rId7"/>
-    <sheet name="CalcPathLinear" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="219">
   <si>
     <t>Test case</t>
   </si>
@@ -505,55 +504,10 @@
     <t>F2</t>
   </si>
   <si>
-    <t>Distance.IsOccupied</t>
-  </si>
-  <si>
     <t>TC</t>
   </si>
   <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>SQ1</t>
-  </si>
-  <si>
-    <t>SQ2</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>occupied</t>
-  </si>
-  <si>
-    <t>south</t>
-  </si>
-  <si>
-    <t>east</t>
-  </si>
-  <si>
-    <t>North</t>
-  </si>
-  <si>
-    <t>west</t>
-  </si>
-  <si>
-    <t>northeast</t>
-  </si>
-  <si>
-    <t>southeast</t>
-  </si>
-  <si>
-    <t>southwest</t>
-  </si>
-  <si>
     <t>G5</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>northwest</t>
   </si>
   <si>
     <t>Distance.CalcPathDiag</t>
@@ -29196,39 +29150,36 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E1ADEA-C9C7-4760-BE8E-7A457F8DD44B}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0849D968-A71F-4CE0-956A-5B59285F5736}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E3" t="s">
-        <v>162</v>
+      <c r="E3" s="21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -29236,16 +29187,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
         <v>163</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -29253,16 +29204,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -29270,16 +29221,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="E6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -29287,16 +29238,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -29304,16 +29255,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -29321,16 +29272,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -29338,16 +29289,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
         <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -29355,16 +29306,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" t="s">
         <v>163</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -29372,16 +29323,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -29389,16 +29340,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -29406,16 +29357,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -29423,16 +29374,16 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -29440,16 +29391,16 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="E16" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -29457,55 +29408,20 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" t="s">
-        <v>172</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29526,21 +29442,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>43</v>
@@ -29551,7 +29467,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>53</v>
@@ -29560,7 +29476,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -29568,16 +29484,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -29585,7 +29501,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>83</v>
@@ -29594,7 +29510,7 @@
         <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -29602,7 +29518,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>20</v>
@@ -29611,7 +29527,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -29619,7 +29535,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>61</v>
@@ -29628,7 +29544,7 @@
         <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -29636,7 +29552,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>115</v>
@@ -29645,7 +29561,7 @@
         <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -29653,7 +29569,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>5</v>
@@ -29662,7 +29578,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -29670,16 +29586,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -29687,7 +29603,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>83</v>
@@ -29696,7 +29612,7 @@
         <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -29704,7 +29620,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>60</v>
@@ -29713,7 +29629,7 @@
         <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -29721,7 +29637,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>99</v>
@@ -29730,7 +29646,7 @@
         <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -29738,7 +29654,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>85</v>
@@ -29747,7 +29663,7 @@
         <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -29755,7 +29671,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>64</v>
@@ -29764,7 +29680,7 @@
         <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -29772,7 +29688,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>8</v>
@@ -29781,283 +29697,7 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0849D968-A71F-4CE0-956A-5B59285F5736}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>226</v>
-      </c>
-      <c r="C14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
